--- a/Carat/templates/FullByTeachers.xlsx
+++ b/Carat/templates/FullByTeachers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -115,9 +115,6 @@
     <t>бакалаврів</t>
   </si>
   <si>
-    <t>бакалаврів</t>
-  </si>
-  <si>
     <t>Керівництво практиками</t>
   </si>
   <si>
@@ -143,10 +140,6 @@
 (комп. практик. семін.)</t>
   </si>
   <si>
-    <t>за змішаною
-формою начвання</t>
-  </si>
-  <si>
     <t>магістр ОПП</t>
   </si>
   <si>
@@ -160,11 +153,23 @@
 в ЕК</t>
   </si>
   <si>
-    <t>П.І.Б. викладача,
-посада, частка ставки</t>
-  </si>
-  <si>
     <t>Навантаження кафедри за викладачами</t>
+  </si>
+  <si>
+    <t>за змішаною
+формою навчання</t>
+  </si>
+  <si>
+    <t>аспірантів</t>
+  </si>
+  <si>
+    <t>Посада</t>
+  </si>
+  <si>
+    <t>Частка ставки</t>
+  </si>
+  <si>
+    <t>П.І.Б.</t>
   </si>
 </sst>
 </file>
@@ -373,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +433,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -438,47 +485,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,25 +774,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="38" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="38" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -795,12 +808,12 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -826,7 +839,7 @@
       <c r="Y3" s="10"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -858,7 +871,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -891,187 +904,195 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:40" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="AG8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL7" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="AI8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="23"/>
     </row>
-    <row r="8" spans="1:38" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="29"/>
-    </row>
-    <row r="9" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1105,27 +1126,23 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="17"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="17"/>
     </row>
-    <row r="10" spans="1:38" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18">
-        <f>SUM(C9:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10:AK10" si="0">SUM(D9:D9)</f>
-        <v>0</v>
-      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(E9:E9)</f>
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F10:AM10" si="0">SUM(F9:F9)</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
@@ -1164,15 +1181,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1249,30 +1266,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="19">
-        <f t="shared" ref="AL10" si="1">SUM(C10:AK10)</f>
+      <c r="AL10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="19">
+        <f t="shared" ref="AN10" si="1">SUM(E10:AM10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AG11" s="7"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -1280,32 +1305,34 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="N7:N8"/>
+  <mergeCells count="27">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>

--- a/Carat/templates/FullByTeachers.xlsx
+++ b/Carat/templates/FullByTeachers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>П.І.Б.</t>
+  </si>
+  <si>
+    <t>Форма зайнятості</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +436,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -490,6 +499,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +789,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,15 +801,16 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="38" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="38" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -808,7 +824,7 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
@@ -839,7 +855,7 @@
       <c r="Y3" s="10"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -871,7 +887,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -904,196 +920,200 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:41" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="J7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="K7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="M7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="N7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="O7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="P7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="Q7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="R7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="V7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31" t="s">
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32" t="s">
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="31" t="s">
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="24" t="s">
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AM7" s="24" t="s">
+      <c r="AN7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AN7" s="22" t="s">
+      <c r="AO7" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="5" t="s">
+    <row r="8" spans="1:41" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="S8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="T8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="32"/>
+      <c r="V8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="20" t="s">
+      <c r="AC8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AD8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AE8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AF8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AG8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AI8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI8" s="20" t="s">
+      <c r="AJ8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="23"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="25"/>
     </row>
-    <row r="9" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1128,25 +1148,23 @@
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
-      <c r="AN9" s="17"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18">
-        <f>SUM(E9:E9)</f>
-        <v>0</v>
-      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="18">
-        <f t="shared" ref="F10:AM10" si="0">SUM(F9:F9)</f>
+        <f>SUM(F9:F9)</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G10:AN10" si="0">SUM(G9:G9)</f>
         <v>0</v>
       </c>
       <c r="H10" s="18">
@@ -1189,11 +1207,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="18"/>
       <c r="T10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1274,30 +1292,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="19">
-        <f t="shared" ref="AN10" si="1">SUM(E10:AM10)</f>
+      <c r="AN10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="19">
+        <f t="shared" ref="AO10" si="1">SUM(F10:AN10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AG11" s="7"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -1305,34 +1327,35 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="P7:P8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AM7:AM8"/>
     <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>

--- a/Carat/templates/FullByTeachers.xlsx
+++ b/Carat/templates/FullByTeachers.xlsx
@@ -442,6 +442,28 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -478,33 +500,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +792,7 @@
   <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -927,122 +927,122 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:41" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33" t="s">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34" t="s">
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="33" t="s">
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33" t="s">
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="26" t="s">
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AN7" s="26" t="s">
+      <c r="AN7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AO7" s="24" t="s">
+      <c r="AO7" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="T8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="32"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1104,9 +1104,9 @@
       <c r="AL8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="25"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="33"/>
     </row>
     <row r="9" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1328,23 +1328,6 @@
     <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AM7:AM8"/>
     <mergeCell ref="AN7:AN8"/>
@@ -1356,6 +1339,23 @@
     <mergeCell ref="AB7:AD7"/>
     <mergeCell ref="AH7:AJ7"/>
     <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
